--- a/reports/team-lead_visits_details_export/visit_details_nkosingiphile-ntombikayise-ntombi-khumalo.xlsx
+++ b/reports/team-lead_visits_details_export/visit_details_nkosingiphile-ntombikayise-ntombi-khumalo.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7143,6 +7143,1216 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>9701023350787</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Siyabonga Mhlongo</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>030115571087</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Sipho Zondi</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>77072156000084</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Tebogo Seele</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>7603122589061</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Nomasonto Mthembu</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>6312258905321</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Justice Mthembu</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>0302223569084</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Oratile Moshina</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>0609215863042</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Omphile Moshina</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>02122258908521</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Boikhutso Moshina</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>01122058906324</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Pamela Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>6906233698052</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Gugulethu Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>6202296879051</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Gladys Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>6312278596032</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>John Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>0102276598025</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Malibongwe Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>8408255584085</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Siyabonga Zuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>0203269864062</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Thandiwe Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>0102258963047</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Okuhle Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>0212113569055</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Amanda Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>0411206984063</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Njabulo Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>9811278696053</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Mbali Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>0112286932084</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Oyakhe Twala</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>0502226590863</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Onalerona Mohatle</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>,0602236589060</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Kgoitsome Mohatle</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>0102253568906</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Thato Mohatle</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>0509233568906</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Kelebohile Mohatle</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>0106080370088</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Nombuso Xaba</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>9409205558087</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Thabiso Zuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>0601025806089</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Justice Dhlamini</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>7905064546082</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Sphiwe Jekezi</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>9808176713089</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Zipho Zulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>8405164512083</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Thabo Ngwane</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>8706244513081</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Kwazi Ndlovu</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>0403040512089</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Londeka Ngwenya</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>8907066713089</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Sbonakele Ndlovu</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>7804134513083</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Kwanele Khumalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>7804056813085</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Sthandwa Zulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>8706055613089</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Kwanele Dlamini</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>9006094513081</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Halala Nxumalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>8704055613079</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Ntokozo Ngema</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>8504164513083</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Lwanele Zondi</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>7804154513089</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Gugulethu Nxumalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>8907144514083</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Nomkosi Zwane</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>060217067088</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Stha Nxumalo</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>02012289707088</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Sbekezelo Zwide</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>0312240991086</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Sindisiwe Xulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>0202137706088</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Nomthandazo Masondo</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>0304192334087</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Snothando Zulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>05062020076092</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Lubanzi Zulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>9601220745081</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Karabo Motatamali</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>7908234513081</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Sindisiwe Xulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>8504274513084</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Siziwe Bingwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>6112305353085</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Kile Ngaleka</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>9501125337087</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Robbert Msimango</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>0305186168087</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Thulani Tshekazi</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>5206558536985</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Lonwabo MTHEMBU</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nkosingiphile Ntombikayise Ntombi Khumalo</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>0512128652380</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Pearl Mkhize</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
